--- a/Loool.xlsx
+++ b/Loool.xlsx
@@ -42,10 +42,10 @@
       <sz val="11"/>
     </font>
     <font>
+      <color rgb="001F497D"/>
       <sz val="11"/>
     </font>
     <font>
-      <color rgb="001F497D"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -76,8 +76,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FFFACD"/>
+        <bgColor rgb="00FFFACD"/>
       </patternFill>
     </fill>
     <fill>
@@ -128,17 +128,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,407 +640,394 @@
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>Деловые Линии</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="6" t="n"/>
+          <t>Среднее значение</t>
+        </is>
+      </c>
+      <c r="B6" s="6">
+        <f>AVERAGE(B4:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="6">
+        <f>AVERAGE(C4:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="6">
+        <f>AVERAGE(D4:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="6">
+        <f>AVERAGE(E4:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="6">
+        <f>AVERAGE(F4:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="6">
+        <f>AVERAGE(G4:G5)</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>Среднее значение</t>
-        </is>
-      </c>
-      <c r="B7" s="7">
-        <f>AVERAGE(B4:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="7">
-        <f>AVERAGE(C4:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="7">
-        <f>AVERAGE(D4:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="7">
-        <f>AVERAGE(E4:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="7">
-        <f>AVERAGE(F4:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="7">
-        <f>AVERAGE(G4:G6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
           <t>Новая Витэка</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
-      <c r="G8" s="8" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Стоимость доставки</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Конверт</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Посылка до 10 кг</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1 место до 30 кг</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Груз до 0,5 куба</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Груз до 100 кг</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>Груз более 3000 кг</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Стоимость доставки</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Конверт</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Посылка до 10 кг</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1 место до 30 кг</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Груз до 0,5 куба</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Груз до 100 кг</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Груз более 3000 кг</t>
-        </is>
-      </c>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>GTD</t>
+        </is>
+      </c>
+      <c r="B11" s="4">
+        <f>270*(1+Наценки!B4/100)</f>
+        <v/>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>660</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>660</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>4104</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>GTD</t>
-        </is>
-      </c>
-      <c r="B12" s="4">
-        <f>270*(1+Наценки!B4/100)</f>
-        <v/>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>660</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>660</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>4104</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>13.8</v>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>+10%</t>
+        </is>
+      </c>
+      <c r="B12" s="5">
+        <f>B11*(1+10.0/100)</f>
+        <v/>
+      </c>
+      <c r="C12" s="5">
+        <f>C11*(1+10.0/100)</f>
+        <v/>
+      </c>
+      <c r="D12" s="5">
+        <f>D11*(1+10.0/100)</f>
+        <v/>
+      </c>
+      <c r="E12" s="5">
+        <f>E11*(1+10.0/100)</f>
+        <v/>
+      </c>
+      <c r="F12" s="5">
+        <f>F11*(1+10.0/100)</f>
+        <v/>
+      </c>
+      <c r="G12" s="5">
+        <f>G11*(1+10.0/100)</f>
+        <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>+10%</t>
-        </is>
-      </c>
-      <c r="B13" s="5">
-        <f>B12*(1+10.0/100)</f>
-        <v/>
-      </c>
-      <c r="C13" s="5">
-        <f>C12*(1+10.0/100)</f>
-        <v/>
-      </c>
-      <c r="D13" s="5">
-        <f>D12*(1+10.0/100)</f>
-        <v/>
-      </c>
-      <c r="E13" s="5">
-        <f>E12*(1+10.0/100)</f>
-        <v/>
-      </c>
-      <c r="F13" s="5">
-        <f>F12*(1+10.0/100)</f>
-        <v/>
-      </c>
-      <c r="G13" s="5">
-        <f>G12*(1+10.0/100)</f>
-        <v/>
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>Деловые Линии</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>290</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>450</v>
+      </c>
+      <c r="D13" s="8" t="n"/>
+      <c r="E13" s="8" t="n">
+        <v>5320</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>Деловые Линии</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>290</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>450</v>
-      </c>
-      <c r="D14" s="6" t="n"/>
-      <c r="E14" s="6" t="n">
-        <v>5320</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>26.2</v>
+          <t>Среднее значение</t>
+        </is>
+      </c>
+      <c r="B14" s="6">
+        <f>AVERAGE(B11:B13)</f>
+        <v/>
+      </c>
+      <c r="C14" s="6">
+        <f>AVERAGE(C11:C13)</f>
+        <v/>
+      </c>
+      <c r="D14" s="6">
+        <f>AVERAGE(D11:D13)</f>
+        <v/>
+      </c>
+      <c r="E14" s="6">
+        <f>AVERAGE(E11:E13)</f>
+        <v/>
+      </c>
+      <c r="F14" s="6">
+        <f>AVERAGE(F11:F13)</f>
+        <v/>
+      </c>
+      <c r="G14" s="6">
+        <f>AVERAGE(G11:G13)</f>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>Среднее значение</t>
-        </is>
-      </c>
-      <c r="B15" s="7">
-        <f>AVERAGE(B12:B14)</f>
-        <v/>
-      </c>
-      <c r="C15" s="7">
-        <f>AVERAGE(C12:C14)</f>
-        <v/>
-      </c>
-      <c r="D15" s="7">
-        <f>AVERAGE(D12:D14)</f>
-        <v/>
-      </c>
-      <c r="E15" s="7">
-        <f>AVERAGE(E12:E14)</f>
-        <v/>
-      </c>
-      <c r="F15" s="7">
-        <f>AVERAGE(F12:F14)</f>
-        <v/>
-      </c>
-      <c r="G15" s="7">
-        <f>AVERAGE(G12:G14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="8" t="inlineStr">
-        <is>
           <t>Новая Витэка</t>
         </is>
       </c>
-      <c r="B16" s="8" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
-      <c r="G16" s="8" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Стоимость доставки</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Конверт</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Посылка до 10 кг</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1 место до 30 кг</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Груз до 0,5 куба</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Груз до 100 кг</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Груз более 3000 кг</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Стоимость доставки</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Конверт</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Посылка до 10 кг</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1 место до 30 кг</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Груз до 0,5 куба</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Груз до 100 кг</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>Груз более 3000 кг</t>
-        </is>
-      </c>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Новосибирск</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>GTD</t>
+        </is>
+      </c>
+      <c r="B19" s="4">
+        <f>250*(1+Наценки!B4/100)</f>
+        <v/>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>2448</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>GTD</t>
-        </is>
-      </c>
-      <c r="B20" s="4">
-        <f>250*(1+Наценки!B4/100)</f>
-        <v/>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>450</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>450</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>2448</v>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="G20" s="4" t="n">
-        <v>8.9</v>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>+10%</t>
+        </is>
+      </c>
+      <c r="B20" s="5">
+        <f>B19*(1+10.0/100)</f>
+        <v/>
+      </c>
+      <c r="C20" s="5">
+        <f>C19*(1+10.0/100)</f>
+        <v/>
+      </c>
+      <c r="D20" s="5">
+        <f>D19*(1+10.0/100)</f>
+        <v/>
+      </c>
+      <c r="E20" s="5">
+        <f>E19*(1+10.0/100)</f>
+        <v/>
+      </c>
+      <c r="F20" s="5">
+        <f>F19*(1+10.0/100)</f>
+        <v/>
+      </c>
+      <c r="G20" s="5">
+        <f>G19*(1+10.0/100)</f>
+        <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>+10%</t>
-        </is>
-      </c>
-      <c r="B21" s="5">
-        <f>B20*(1+10.0/100)</f>
-        <v/>
-      </c>
-      <c r="C21" s="5">
-        <f>C20*(1+10.0/100)</f>
-        <v/>
-      </c>
-      <c r="D21" s="5">
-        <f>D20*(1+10.0/100)</f>
-        <v/>
-      </c>
-      <c r="E21" s="5">
-        <f>E20*(1+10.0/100)</f>
-        <v/>
-      </c>
-      <c r="F21" s="5">
-        <f>F20*(1+10.0/100)</f>
-        <v/>
-      </c>
-      <c r="G21" s="5">
-        <f>G20*(1+10.0/100)</f>
-        <v/>
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Деловые Линии</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>330</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>390</v>
+      </c>
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="8" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>Деловые Линии</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>330</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>390</v>
-      </c>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n">
-        <v>3400</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>17.5</v>
+          <t>Среднее значение</t>
+        </is>
+      </c>
+      <c r="B22" s="6">
+        <f>AVERAGE(B19:B21)</f>
+        <v/>
+      </c>
+      <c r="C22" s="6">
+        <f>AVERAGE(C19:C21)</f>
+        <v/>
+      </c>
+      <c r="D22" s="6">
+        <f>AVERAGE(D19:D21)</f>
+        <v/>
+      </c>
+      <c r="E22" s="6">
+        <f>AVERAGE(E19:E21)</f>
+        <v/>
+      </c>
+      <c r="F22" s="6">
+        <f>AVERAGE(F19:F21)</f>
+        <v/>
+      </c>
+      <c r="G22" s="6">
+        <f>AVERAGE(G19:G21)</f>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>Среднее значение</t>
-        </is>
-      </c>
-      <c r="B23" s="7">
-        <f>AVERAGE(B20:B22)</f>
-        <v/>
-      </c>
-      <c r="C23" s="7">
-        <f>AVERAGE(C20:C22)</f>
-        <v/>
-      </c>
-      <c r="D23" s="7">
-        <f>AVERAGE(D20:D22)</f>
-        <v/>
-      </c>
-      <c r="E23" s="7">
-        <f>AVERAGE(E20:E22)</f>
-        <v/>
-      </c>
-      <c r="F23" s="7">
-        <f>AVERAGE(F20:F22)</f>
-        <v/>
-      </c>
-      <c r="G23" s="7">
-        <f>AVERAGE(G20:G22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="inlineStr">
-        <is>
           <t>Новая Витэка</t>
         </is>
       </c>
-      <c r="B24" s="8" t="n"/>
-      <c r="C24" s="8" t="n"/>
-      <c r="D24" s="8" t="n"/>
-      <c r="E24" s="8" t="n"/>
-      <c r="F24" s="8" t="n"/>
-      <c r="G24" s="8" t="n"/>
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
